--- a/Recycling/SwFD/SwFD_Avg.xlsx
+++ b/Recycling/SwFD/SwFD_Avg.xlsx
@@ -2779,7 +2779,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5561543681.852113</v>
+        <v>5561543681.852112</v>
       </c>
     </row>
   </sheetData>
@@ -3001,7 +3001,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7436396672.42451</v>
+        <v>7436396672.424511</v>
       </c>
     </row>
   </sheetData>
@@ -3075,7 +3075,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>8270139103.690011</v>
+        <v>8270139103.690012</v>
       </c>
     </row>
   </sheetData>
@@ -3741,7 +3741,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>32452717129.63205</v>
+        <v>32452717129.63204</v>
       </c>
     </row>
   </sheetData>
@@ -4555,7 +4555,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>70894157814.83176</v>
+        <v>70894157814.83177</v>
       </c>
     </row>
   </sheetData>
@@ -4703,7 +4703,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>59169072284.89862</v>
+        <v>59169072284.89861</v>
       </c>
     </row>
   </sheetData>
@@ -4851,7 +4851,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>49945703946.29954</v>
+        <v>49945703946.29955</v>
       </c>
     </row>
   </sheetData>
@@ -4925,7 +4925,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>42211942174.75196</v>
+        <v>42211942174.75195</v>
       </c>
     </row>
   </sheetData>
@@ -5739,7 +5739,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7850706384.452102</v>
+        <v>7850706384.452101</v>
       </c>
     </row>
   </sheetData>
@@ -5813,7 +5813,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7717528232.464358</v>
+        <v>7717528232.464357</v>
       </c>
     </row>
   </sheetData>
@@ -6035,7 +6035,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5303789346.820695</v>
+        <v>5303789346.820694</v>
       </c>
     </row>
   </sheetData>
@@ -6257,7 +6257,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5089368881.40755</v>
+        <v>5089368881.407551</v>
       </c>
     </row>
   </sheetData>
@@ -6479,7 +6479,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5431099620.881576</v>
+        <v>5431099620.881575</v>
       </c>
     </row>
   </sheetData>
@@ -6701,7 +6701,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5803702352.235234</v>
+        <v>5803702352.235233</v>
       </c>
     </row>
   </sheetData>
@@ -6775,7 +6775,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6262049228.731549</v>
+        <v>6262049228.731548</v>
       </c>
     </row>
   </sheetData>
@@ -6849,7 +6849,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6851089387.567746</v>
+        <v>6851089387.567745</v>
       </c>
     </row>
   </sheetData>
@@ -7023,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14865084976.35832</v>
+        <v>14865084976.35833</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7441,7 +7441,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>8107867860.813716</v>
+        <v>8107867860.813717</v>
       </c>
     </row>
   </sheetData>
@@ -7811,7 +7811,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7597502213.312564</v>
+        <v>7597502213.312563</v>
       </c>
     </row>
   </sheetData>
